--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-874.9894754637253</v>
+        <v>-1078.394481267267</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108955</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429403</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4280655.801236135</v>
+        <v>4172565.306157409</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374.0142720497965</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>376.6861762689734</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>146.7693115629816</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>139.994688080771</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>375.9790740437535</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.000066560756421</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>74.47479140598074</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,7 +1198,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>205.471124600043</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>65.08349745777329</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.78093169703799</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>179.9925004503088</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T12" t="n">
         <v>128.8768572327044</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>48.5844931331233</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>67.2427605264751</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>29.26230950814955</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6.671869551982202</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.553567514357</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>47.15016546971388</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.2681271316377</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>119.3112330440767</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C22" t="n">
-        <v>116.0434079398616</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2318,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D23" t="n">
-        <v>357.5270992262344</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,19 +2478,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>159.582856075998</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2555,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>400.2191742817121</v>
+        <v>143.1609860579342</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>7.646576123170139</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>396.7787713257347</v>
+        <v>264.5484424901697</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>39.10580305650011</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>93.41827306551629</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>346.9511760890397</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3047,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>64.19216575788683</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>119.2231381114456</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>260.2915433175625</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>347.3637975681711</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>15.26414144574753</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.87089136023317</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3487,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,16 +3505,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>16.98829347824176</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>376.6861762689736</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.04146492631018</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>204.3340449198225</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>267.2030422119699</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>150.7629884110882</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3946,7 +3948,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>232.2625550286187</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>276.3999628334956</v>
       </c>
       <c r="H44" t="n">
-        <v>181.0765084323517</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>159.0795671480839</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4056,22 +4058,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>1.117527597117772</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>181.0765084323517</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>181.0765084323517</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
         <v>125.2209214285714</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>18.98437982015312</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>181.0765084323517</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>181.0765084323517</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>5.08148512872441</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1319.391236090724</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.391236090724</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,40 +4397,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>857.0776321906106</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>487.6889477470038</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>487.6889477470038</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>487.6889477470038</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>487.6889477470038</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4492,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>487.6889477470038</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>487.6889477470038</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>891.1070171270717</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="C5" t="n">
-        <v>462.52534286434</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="D5" t="n">
-        <v>33.94366860160834</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4604,13 +4606,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.406587611979</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.406587611979</v>
+        <v>464.8993883704147</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4647,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>386.4693996828083</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>386.4693996828083</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4729,16 +4731,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4747,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X7" t="n">
-        <v>347.0794944074844</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.6598237215927</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.3414999783445</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C8" t="n">
-        <v>435.3414999783445</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D8" t="n">
-        <v>435.3414999783445</v>
+        <v>462.9421322372</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4805,16 +4807,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4835,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1621.956368054174</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.339417988001</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W8" t="n">
-        <v>854.4839633990338</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X8" t="n">
-        <v>435.3414999783445</v>
+        <v>462.9421322372</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.3414999783445</v>
+        <v>462.9421322372</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4887,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>526.7303425510686</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>299.3106718651768</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>915.4240165935545</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="C11" t="n">
-        <v>915.4240165935545</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="D11" t="n">
-        <v>486.8423423308228</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5042,16 +5044,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5072,19 +5074,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1515.372823564954</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="W11" t="n">
-        <v>1334.566480014244</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="X11" t="n">
-        <v>915.4240165935545</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="Y11" t="n">
-        <v>915.4240165935545</v>
+        <v>1152.75587349878</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5126,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>646.930316449007</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C13" t="n">
-        <v>646.930316449007</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D13" t="n">
-        <v>646.930316449007</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E13" t="n">
-        <v>477.1723126997443</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F13" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
@@ -5203,46 +5205,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>341.7616130750586</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M13" t="n">
-        <v>341.7616130750586</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N13" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O13" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P13" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X13" t="n">
-        <v>646.930316449007</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.930316449007</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="C14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="D14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="E14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="F14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M14" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5312,16 +5314,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1667.625541688347</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W14" t="n">
-        <v>1262.77008709938</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X14" t="n">
-        <v>843.6276236786911</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5363,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>206.2742057495001</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>206.2742057495001</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>206.2742057495001</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>206.2742057495001</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5434,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>688.8848573262783</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M16" t="n">
-        <v>1108.937756271182</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
-        <v>1528.990655216085</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1429.886162364244</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V16" t="n">
-        <v>1142.930654234675</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>870.9042498209665</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>625.5124951543789</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y16" t="n">
-        <v>398.0928244684872</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>510.5685620045878</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C17" t="n">
-        <v>510.5685620045878</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="D17" t="n">
-        <v>81.98688774185609</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="E17" t="n">
-        <v>81.98688774185609</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="F17" t="n">
-        <v>81.98688774185609</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>81.98688774185609</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5549,16 +5551,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W17" t="n">
-        <v>929.7110254252771</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X17" t="n">
-        <v>510.5685620045878</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y17" t="n">
-        <v>510.5685620045878</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="18">
@@ -5571,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5580,10 +5582,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5595,7 +5597,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L18" t="n">
         <v>804.6185656731816</v>
@@ -5604,13 +5606,13 @@
         <v>804.6185656731816</v>
       </c>
       <c r="N18" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O18" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C19" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D19" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E19" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F19" t="n">
         <v>33.94366860160834</v>
@@ -5674,19 +5676,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L19" t="n">
-        <v>437.4083829648294</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M19" t="n">
-        <v>857.4612819097326</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P19" t="n">
         <v>1697.183430080417</v>
@@ -5716,7 +5718,7 @@
         <v>368.4973157021125</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.6507226398521</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1361.228219012466</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C20" t="n">
-        <v>923.0857461958889</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D20" t="n">
-        <v>487.1759613703334</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E20" t="n">
-        <v>53.40121652862856</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862856</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>141.0418768474983</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L20" t="n">
-        <v>141.0418768474983</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M20" t="n">
-        <v>141.0418768474983</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N20" t="n">
-        <v>801.8819313892766</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O20" t="n">
-        <v>1462.721985931055</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P20" t="n">
-        <v>2123.562040472833</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.060826431428</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2327.186649932281</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2206.670252918062</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2206.670252918062</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>1787.527789497373</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="Y20" t="n">
-        <v>1787.527789497373</v>
+        <v>1318.974446717864</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.4772326516127</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C22" t="n">
-        <v>624.2616690759949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D22" t="n">
-        <v>624.2616690759949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2489.401636434797</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2243.522190013252</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>1965.089189266357</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V22" t="n">
-        <v>1678.133681136788</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W22" t="n">
-        <v>1406.107276723079</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X22" t="n">
-        <v>1160.715522056492</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y22" t="n">
-        <v>933.2958513705998</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>815.9375319722682</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C23" t="n">
-        <v>815.9375319722682</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D23" t="n">
-        <v>454.7990479053647</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E23" t="n">
-        <v>454.7990479053647</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F23" t="n">
-        <v>454.7990479053647</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>632.7278666362198</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2410.838523748444</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>2048.221573682271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>1643.366119093304</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>1224.223655672615</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y23" t="n">
-        <v>815.9375319722682</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>1133.941806870223</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>1357.443063079289</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>1357.443063079289</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>1357.443063079289</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M24" t="n">
-        <v>1357.443063079289</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N24" t="n">
-        <v>1357.443063079289</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O24" t="n">
-        <v>1357.443063079289</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P24" t="n">
-        <v>2012.149109705013</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.888048337089</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.8972536055599</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>731.3355420887848</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>565.4575492903075</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>395.6995455410447</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>218.9924915028009</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2651.821657388744</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>2651.821657388744</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>2405.942210967199</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="U25" t="n">
-        <v>2127.509210220304</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V25" t="n">
-        <v>1840.553702090735</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W25" t="n">
-        <v>1568.527297677026</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X25" t="n">
-        <v>1323.135543010439</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y25" t="n">
-        <v>1095.715872324547</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1697.183430080417</v>
+        <v>178.5507252257843</v>
       </c>
       <c r="C26" t="n">
-        <v>1292.921637876668</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D26" t="n">
-        <v>864.3399636139361</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E26" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F26" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
@@ -6227,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O26" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6251,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.183430080417</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.183430080417</v>
+        <v>178.5507252257843</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.94366860160834</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C28" t="n">
-        <v>33.94366860160834</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D28" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E28" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G28" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6391,16 +6393,16 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M28" t="n">
-        <v>872.2064493144727</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N28" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
@@ -6415,19 +6417,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V28" t="n">
-        <v>885.9154747824084</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W28" t="n">
-        <v>613.8890703687</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="X28" t="n">
-        <v>368.4973157021125</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.0776450162207</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C29" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D29" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6467,19 +6469,19 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M29" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N29" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O29" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P29" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q29" t="n">
         <v>1528.02936532736</v>
@@ -6488,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W29" t="n">
-        <v>1296.396792377655</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X29" t="n">
-        <v>1296.396792377655</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y29" t="n">
-        <v>888.1106686773085</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="30">
@@ -6519,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6528,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6543,19 +6545,19 @@
         <v>358.5019935678207</v>
       </c>
       <c r="K30" t="n">
-        <v>358.5019935678207</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L30" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1024.341879988165</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="C31" t="n">
-        <v>851.7801684713901</v>
+        <v>419.9095375572969</v>
       </c>
       <c r="D31" t="n">
-        <v>685.9021756729128</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E31" t="n">
-        <v>516.14417192365</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F31" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G31" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
         <v>33.94366860160834</v>
@@ -6622,49 +6624,49 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
-        <v>1697.183430080417</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U31" t="n">
-        <v>1537.942061378414</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.942061378414</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W31" t="n">
-        <v>1537.942061378414</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X31" t="n">
-        <v>1443.580169393044</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y31" t="n">
-        <v>1216.160498707152</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1153.05332879786</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C32" t="n">
-        <v>724.4716545351282</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="D32" t="n">
-        <v>724.4716545351282</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="E32" t="n">
-        <v>724.4716545351282</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="F32" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G32" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O32" t="n">
         <v>687.9235674375537</v>
@@ -6728,22 +6730,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U32" t="n">
-        <v>1217.893900270473</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V32" t="n">
-        <v>1153.05332879786</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W32" t="n">
-        <v>1153.05332879786</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X32" t="n">
-        <v>1153.05332879786</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y32" t="n">
-        <v>1153.05332879786</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="33">
@@ -6756,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6765,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6783,22 +6785,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R33" t="n">
         <v>1697.183430080417</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>210.6507226398521</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="C34" t="n">
-        <v>210.6507226398521</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="D34" t="n">
-        <v>210.6507226398521</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E34" t="n">
-        <v>210.6507226398521</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F34" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G34" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H34" t="n">
         <v>33.94366860160834</v>
@@ -6856,52 +6858,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U34" t="n">
-        <v>1434.262679254597</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V34" t="n">
-        <v>1147.307171125027</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W34" t="n">
-        <v>875.2807667113186</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X34" t="n">
-        <v>629.8890120447311</v>
+        <v>459.8645301191896</v>
       </c>
       <c r="Y34" t="n">
-        <v>402.4693413588393</v>
+        <v>459.8645301191896</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.974446717864</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D35" t="n">
-        <v>890.3927724551322</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E35" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F35" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6968,19 +6970,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7013,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J36" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K36" t="n">
-        <v>804.6185656731816</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L36" t="n">
-        <v>1159.957753041174</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M36" t="n">
         <v>1159.957753041174</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.6507226398521</v>
+        <v>487.2907080746261</v>
       </c>
       <c r="C37" t="n">
-        <v>210.6507226398521</v>
+        <v>314.7289965578511</v>
       </c>
       <c r="D37" t="n">
-        <v>210.6507226398521</v>
+        <v>314.7289965578511</v>
       </c>
       <c r="E37" t="n">
-        <v>210.6507226398521</v>
+        <v>314.7289965578511</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>138.0219425196073</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>138.0219425196073</v>
       </c>
       <c r="H37" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
@@ -7099,13 +7101,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N37" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7117,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U37" t="n">
-        <v>1434.262679254597</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.307171125027</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W37" t="n">
-        <v>875.2807667113186</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X37" t="n">
-        <v>629.8890120447311</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="Y37" t="n">
-        <v>402.4693413588393</v>
+        <v>679.1093267936133</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>890.3927724551322</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C38" t="n">
-        <v>890.3927724551322</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D38" t="n">
-        <v>890.3927724551322</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E38" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F38" t="n">
         <v>33.94366860160834</v>
@@ -7175,16 +7177,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M38" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7205,19 +7207,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1680.023537678153</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="X38" t="n">
-        <v>1316.69234294004</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="Y38" t="n">
-        <v>1316.69234294004</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O39" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P39" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q39" t="n">
         <v>1580.010651986078</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>210.6507226398521</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="C40" t="n">
-        <v>210.6507226398521</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="D40" t="n">
-        <v>210.6507226398521</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E40" t="n">
         <v>210.6507226398521</v>
@@ -7330,52 +7332,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U40" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V40" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W40" t="n">
-        <v>613.8890703687</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X40" t="n">
-        <v>368.4973157021125</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y40" t="n">
-        <v>210.6507226398521</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>864.3399636139361</v>
+        <v>240.7584831460063</v>
       </c>
       <c r="C41" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D41" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E41" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F41" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G41" t="n">
         <v>34.36045797446834</v>
@@ -7412,16 +7414,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V41" t="n">
-        <v>864.3399636139361</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W41" t="n">
-        <v>864.3399636139361</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X41" t="n">
-        <v>864.3399636139361</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y41" t="n">
-        <v>864.3399636139361</v>
+        <v>667.0580536309141</v>
       </c>
     </row>
     <row r="42">
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.2562847857771</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C43" t="n">
-        <v>532.694573269002</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D43" t="n">
-        <v>380.4087263891149</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E43" t="n">
         <v>210.6507226398521</v>
@@ -7567,25 +7569,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M43" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O43" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
@@ -7594,25 +7596,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T43" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U43" t="n">
-        <v>992.2117929153466</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V43" t="n">
-        <v>705.2562847857771</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W43" t="n">
-        <v>705.2562847857771</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X43" t="n">
-        <v>705.2562847857771</v>
+        <v>629.8890120447311</v>
       </c>
       <c r="Y43" t="n">
-        <v>705.2562847857771</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>380.7140381936132</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="C44" t="n">
-        <v>197.8084741205307</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="D44" t="n">
-        <v>197.8084741205307</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="E44" t="n">
-        <v>197.8084741205307</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="F44" t="n">
-        <v>197.8084741205307</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="G44" t="n">
-        <v>197.8084741205307</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>14.90291004744813</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>186.5088036853223</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>186.5088036853223</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>186.5088036853223</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>186.5088036853223</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>186.5088036853223</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>365.7745470333505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>545.0402903813787</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>724.3060337294069</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>724.3060337294069</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>724.3060337294069</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>541.4004696563243</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V44" t="n">
-        <v>380.7140381936132</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W44" t="n">
-        <v>380.7140381936132</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X44" t="n">
-        <v>380.7140381936132</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="Y44" t="n">
-        <v>380.7140381936132</v>
+        <v>1030.847379071119</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110.7052252826993</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>109.5764095280349</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>14.48612067458814</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>14.48612067458814</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>14.48612067458814</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>14.48612067458814</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>219.8155371830739</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>219.8155371830739</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>219.8155371830739</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M45" t="n">
-        <v>219.8155371830739</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N45" t="n">
-        <v>219.8155371830739</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O45" t="n">
-        <v>248.6017689390107</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>724.3060337294069</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>724.3060337294069</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>724.3060337294069</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>541.4004696563243</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>358.4949055832417</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>358.4949055832417</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>232.0091263624625</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>199.2535368812384</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="C46" t="n">
-        <v>199.2535368812384</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="D46" t="n">
-        <v>199.2535368812384</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E46" t="n">
-        <v>199.2535368812384</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F46" t="n">
-        <v>199.2535368812384</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G46" t="n">
-        <v>33.66226190706604</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H46" t="n">
-        <v>33.66226190706604</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>101.065805839278</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>186.5088036853223</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>365.7745470333505</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>545.0402903813787</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>724.3060337294069</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>724.3060337294069</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P46" t="n">
-        <v>724.3060337294069</v>
+        <v>1580.667833301518</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>724.3060337294069</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>565.0646650274035</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>565.0646650274035</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U46" t="n">
-        <v>382.1591009543209</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V46" t="n">
-        <v>199.2535368812384</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W46" t="n">
-        <v>199.2535368812384</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X46" t="n">
-        <v>199.2535368812384</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="Y46" t="n">
-        <v>199.2535368812384</v>
+        <v>428.0970671107308</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>407.152590549595</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8079,7 +8081,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8140,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8295,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8377,19 +8379,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>237.6484237362512</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N7" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N7" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,19 +8455,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8535,19 +8537,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8772,19 +8774,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8851,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>310.9272166398487</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O14" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9009,19 +9011,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>296.5687363523682</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9322,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N19" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>88.52591951400984</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10039,10 +10041,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>58.38468441396105</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10051,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10191,10 +10193,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10270,25 +10272,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>298.8178948332411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -10431,7 +10433,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10659,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10747,16 +10749,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10823,19 +10825,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10905,7 +10907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>173.7602858694285</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11455,25 +11457,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>86.30605843034782</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>181.0765084323517</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.02230273026214</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>54.86451070832652</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
@@ -22565,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -22714,13 +22716,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>28.17067193487969</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22753,13 +22755,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -22796,13 +22798,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>257.3891649821977</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>38.97196474272886</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0414389630128</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>158.2191463097361</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23027,19 +23029,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,7 +23077,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>182.1552882501725</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>209.4799141864394</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23188,7 +23190,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23197,7 +23199,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>177.8543396621484</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>404.6560656962498</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>76.6375792058445</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>105.0414389630128</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23422,19 +23424,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>126.355490364738</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23509,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>218.9960924847408</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>329.7284710573622</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23662,10 +23664,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>168.2681139458791</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>17.03518778052728</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>239.088687541502</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23899,7 +23901,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.8773468473951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>239.679547521435</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>40.52414525755449</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C22" t="n">
-        <v>54.79268646174569</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24136,16 +24138,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24206,19 +24208,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D23" t="n">
-        <v>74.02358775106546</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -24260,19 +24262,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>83.83779588133126</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24443,25 +24445,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>33.54187380669885</v>
+        <v>290.6000620304767</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>261.6595642464013</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24689,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>4.02812871734227</v>
+        <v>136.2584575529073</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>125.1134098139924</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>149.5195640544054</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24926,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>76.63757920584459</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>294.7986148076249</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>70.67729442035167</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -25084,13 +25086,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>15.3571274218632</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25208,13 +25210,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>53.44310247490591</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25327,10 +25329,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>123.2390111207817</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>258.7777793791926</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25391,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -25445,16 +25447,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>239.6417861779115</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>38.26486251750879</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>144.1777479441824</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.8773468473951</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>229.4270031685884</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25640,7 +25642,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>91.78773835354178</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25694,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>13.4562244594043</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>10.67528209130293</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>252.6845396560592</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25877,13 +25879,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>120.9838902294731</v>
       </c>
       <c r="H44" t="n">
-        <v>105.1623445788642</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>75.55357122380155</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>199.9112134174278</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25944,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>104.2743689546064</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.04983432626892</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.393018291786206</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>68.78896991291829</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>94.572162307074</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0094446159221</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>237.8563519911972</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360851.0721207156</v>
+        <v>360851.0721207154</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360851.0721207156</v>
+        <v>360851.0721207155</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360851.0721207155</v>
+        <v>360851.0721207156</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>360851.0721207154</v>
+        <v>360851.0721207156</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>360851.0721207156</v>
+        <v>360851.0721207155</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507630.1752777317</v>
+        <v>360851.0721207156</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507630.1752777317</v>
+        <v>360851.0721207155</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>360851.0721207156</v>
+        <v>360851.0721207154</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>360851.0721207156</v>
+        <v>360851.0721207155</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360851.0721207156</v>
+        <v>360851.0721207155</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>360851.0721207155</v>
+        <v>360851.0721207156</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154000.2124592834</v>
+        <v>360851.0721207154</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72121.40253724412</v>
+        <v>72121.40253724411</v>
       </c>
       <c r="C2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="D2" t="n">
+        <v>72121.40253724408</v>
+      </c>
+      <c r="E2" t="n">
         <v>72121.4025372441</v>
-      </c>
-      <c r="E2" t="n">
-        <v>72121.40253724411</v>
       </c>
       <c r="F2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="G2" t="n">
+        <v>72121.40253724411</v>
+      </c>
+      <c r="H2" t="n">
+        <v>72121.40253724411</v>
+      </c>
+      <c r="I2" t="n">
+        <v>72121.40253724412</v>
+      </c>
+      <c r="J2" t="n">
         <v>72121.4025372441</v>
       </c>
-      <c r="H2" t="n">
-        <v>101457.3685373715</v>
-      </c>
-      <c r="I2" t="n">
-        <v>101457.3685373715</v>
-      </c>
-      <c r="J2" t="n">
-        <v>72121.40253724411</v>
-      </c>
       <c r="K2" t="n">
-        <v>72121.40253724411</v>
+        <v>72121.40253724408</v>
       </c>
       <c r="L2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="M2" t="n">
-        <v>72121.40253724412</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="N2" t="n">
         <v>72121.40253724411</v>
       </c>
       <c r="O2" t="n">
+        <v>72121.40253724411</v>
+      </c>
+      <c r="P2" t="n">
         <v>72121.4025372441</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30779.21106988304</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>12632.2219864234</v>
       </c>
       <c r="H4" t="n">
-        <v>17770.48083418235</v>
+        <v>12632.2219864234</v>
       </c>
       <c r="I4" t="n">
-        <v>17770.48083418235</v>
+        <v>12632.2219864234</v>
       </c>
       <c r="J4" t="n">
         <v>12632.2219864234</v>
@@ -26457,7 +26459,7 @@
         <v>12632.2219864234</v>
       </c>
       <c r="P4" t="n">
-        <v>5391.04639016079</v>
+        <v>12632.2219864234</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142126.9082461115</v>
+        <v>-142126.9082461116</v>
       </c>
       <c r="C6" t="n">
         <v>64.39241359835432</v>
       </c>
       <c r="D6" t="n">
-        <v>64.39241359835432</v>
+        <v>64.39241359833977</v>
       </c>
       <c r="E6" t="n">
-        <v>33691.99241359837</v>
+        <v>33691.99241359835</v>
       </c>
       <c r="F6" t="n">
         <v>33691.99241359835</v>
       </c>
       <c r="G6" t="n">
-        <v>33691.99241359835</v>
+        <v>33691.99241359837</v>
       </c>
       <c r="H6" t="n">
-        <v>-22520.80621658598</v>
+        <v>33691.99241359837</v>
       </c>
       <c r="I6" t="n">
-        <v>43101.96314143149</v>
+        <v>33691.99241359838</v>
       </c>
       <c r="J6" t="n">
-        <v>-13685.58955867586</v>
+        <v>-77322.47293139182</v>
       </c>
       <c r="K6" t="n">
-        <v>33691.99241359837</v>
+        <v>33691.99241359834</v>
       </c>
       <c r="L6" t="n">
         <v>33691.99241359835</v>
       </c>
       <c r="M6" t="n">
-        <v>33691.99241359838</v>
+        <v>33691.99241359835</v>
       </c>
       <c r="N6" t="n">
         <v>33691.99241359837</v>
       </c>
       <c r="O6" t="n">
+        <v>33691.99241359837</v>
+      </c>
+      <c r="P6" t="n">
         <v>33691.99241359835</v>
-      </c>
-      <c r="P6" t="n">
-        <v>14378.71296703527</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>407.152590549595</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34799,7 +34801,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34860,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>237.6484237362512</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N7" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N7" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,19 +35175,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35255,19 +35257,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35492,19 +35494,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35571,22 +35573,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>310.9272166398487</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O14" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35729,19 +35731,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>296.5687363523682</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N19" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>88.52591951400984</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,19 +36132,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,16 +36369,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36674,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36759,10 +36761,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>58.38468441396105</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -36771,7 +36773,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697544</v>
@@ -36911,10 +36913,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36990,25 +36992,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>298.8178948332411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -37151,7 +37153,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37467,16 +37469,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37543,19 +37545,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37625,7 +37627,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>173.7602858694285</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>86.30605843034782</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>181.0765084323517</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1078.394481267267</v>
+        <v>-7313.711980422287</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25841374.97493689</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6861762689734</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -797,7 +797,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>78.59468467721638</v>
       </c>
       <c r="F4" t="n">
-        <v>146.7693115629816</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>401.3388979860635</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>139.994688080771</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>6.000066560756421</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>78.71748910988967</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>72.62525989088326</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.471124600043</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>170.1478756737229</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>65.08349745777329</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>82.67718084972522</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>179.9925004503088</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V12" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W12" t="n">
         <v>183.4695267241379</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.85899356878446</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>72.21462998383448</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>67.2427605264751</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>218.8876879760265</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.553567514357</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>19.35726169821097</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>64.58216279976261</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,19 +2089,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>72.62525989088326</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>156.4691530425973</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>378.3480422637228</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>159.582856075998</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>36.62710196124189</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>143.1609860579342</v>
+        <v>113.9803212704962</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>51.58755099517776</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>7.646576123170139</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>275.9873413543643</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>264.5484424901697</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>39.10580305650011</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>18.28928691739478</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.3480422637228</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>346.9511760890397</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.2231381114456</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>167.0447164425523</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>347.3637975681711</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>15.26414144574753</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3477,7 +3477,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>64.58216279976261</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>16.98829347824176</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>102.5852382553438</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>20.04146492631018</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>227.5807096980586</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>204.3340449198225</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>39.12682256166539</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>74.09238164368615</v>
       </c>
       <c r="X43" t="n">
-        <v>232.2625550286187</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3982,22 +3982,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>290.491814746575</v>
       </c>
       <c r="G44" t="n">
-        <v>276.3999628334956</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>5.08148512872441</v>
+        <v>67.13877455783249</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.883859595509</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.883859595509</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
         <v>890.3927724551322</v>
@@ -4333,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.6889477470038</v>
+        <v>419.1124060907378</v>
       </c>
       <c r="C4" t="n">
-        <v>487.6889477470038</v>
+        <v>419.1124060907378</v>
       </c>
       <c r="D4" t="n">
-        <v>487.6889477470038</v>
+        <v>253.2344132922605</v>
       </c>
       <c r="E4" t="n">
-        <v>487.6889477470038</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
         <v>173.8458429112338</v>
@@ -4488,19 +4488,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W4" t="n">
-        <v>733.0807024135913</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X4" t="n">
-        <v>487.6889477470038</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="Y4" t="n">
-        <v>487.6889477470038</v>
+        <v>610.9310248097249</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>464.8993883704147</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C5" t="n">
-        <v>464.8993883704147</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="D5" t="n">
-        <v>464.8993883704147</v>
+        <v>1291.790603831868</v>
       </c>
       <c r="E5" t="n">
-        <v>464.8993883704147</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F5" t="n">
-        <v>464.8993883704147</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4606,13 +4606,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4649,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.4693996828083</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C7" t="n">
-        <v>386.4693996828083</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4725,19 +4725,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="X7" t="n">
-        <v>613.8890703687</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.4693996828083</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>462.9421322372</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C8" t="n">
-        <v>462.9421322372</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D8" t="n">
-        <v>462.9421322372</v>
+        <v>536.3009806118296</v>
       </c>
       <c r="E8" t="n">
-        <v>34.36045797446834</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="F8" t="n">
         <v>34.36045797446834</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W8" t="n">
-        <v>670.4887227422939</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X8" t="n">
-        <v>462.9421322372</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y8" t="n">
-        <v>462.9421322372</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4889,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C10" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4971,10 +4971,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4989,25 +4989,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V10" t="n">
-        <v>864.4976534877803</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W10" t="n">
-        <v>592.4712490740719</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X10" t="n">
-        <v>526.7303425510686</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y10" t="n">
-        <v>299.3106718651768</v>
+        <v>205.8102096861769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1152.75587349878</v>
+        <v>974.3218657166036</v>
       </c>
       <c r="C11" t="n">
-        <v>1152.75587349878</v>
+        <v>974.3218657166036</v>
       </c>
       <c r="D11" t="n">
-        <v>1152.75587349878</v>
+        <v>974.3218657166036</v>
       </c>
       <c r="E11" t="n">
-        <v>1152.75587349878</v>
+        <v>545.7401914538719</v>
       </c>
       <c r="F11" t="n">
-        <v>724.8884439079882</v>
+        <v>117.8727618630797</v>
       </c>
       <c r="G11" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H11" t="n">
         <v>34.36045797446834</v>
@@ -5041,19 +5041,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K11" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L11" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M11" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N11" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U11" t="n">
-        <v>1515.372823564954</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V11" t="n">
-        <v>1152.75587349878</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W11" t="n">
-        <v>1152.75587349878</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X11" t="n">
-        <v>1152.75587349878</v>
+        <v>974.3218657166036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1152.75587349878</v>
+        <v>974.3218657166036</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H13" t="n">
         <v>33.94366860160834</v>
@@ -5199,25 +5199,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
@@ -5226,25 +5226,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.886162364244</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.45316161735</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V13" t="n">
-        <v>864.4976534877803</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W13" t="n">
-        <v>592.4712490740719</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X13" t="n">
-        <v>347.0794944074844</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.6598237215927</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.2824383042412</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C14" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D14" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F14" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G14" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O14" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X14" t="n">
-        <v>510.5685620045878</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.2824383042412</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="15">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>535.1709401235207</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>535.1709401235207</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5436,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>762.5906108094125</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>762.5906108094125</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>535.1709401235207</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>873.1855120707613</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C17" t="n">
-        <v>873.1855120707613</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D17" t="n">
-        <v>444.6038378080297</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E17" t="n">
-        <v>444.6038378080297</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5518,19 +5518,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O17" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P17" t="n">
         <v>1107.976466382457</v>
@@ -5542,25 +5542,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W17" t="n">
-        <v>1292.327975491451</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="X17" t="n">
-        <v>873.1855120707613</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="Y17" t="n">
-        <v>873.1855120707613</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5582,10 +5582,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5597,22 +5597,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>509.954387939391</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>509.954387939391</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N19" t="n">
-        <v>930.0072868842942</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1318.974446717864</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C20" t="n">
-        <v>890.3927724551322</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D20" t="n">
-        <v>461.8110981924006</v>
+        <v>536.3009806118296</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5755,19 +5755,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
         <v>1107.976466382457</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X20" t="n">
-        <v>1318.974446717864</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y20" t="n">
-        <v>1318.974446717864</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5819,10 +5819,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5834,22 +5834,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L21" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M21" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N21" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O21" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
         <v>1580.010651986078</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.94366860160834</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D22" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E22" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
         <v>33.94366860160834</v>
@@ -5910,25 +5910,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
@@ -5937,25 +5937,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V22" t="n">
-        <v>885.9154747824084</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W22" t="n">
-        <v>613.8890703687</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="X22" t="n">
-        <v>368.4973157021125</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.0776450162207</v>
+        <v>575.0310528756143</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1697.183430080417</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.974446717864</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D23" t="n">
-        <v>890.3927724551322</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E23" t="n">
-        <v>461.8110981924006</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L23" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M23" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N23" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O23" t="n">
         <v>874.0494664914149</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.183430080417</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6071,22 +6071,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L24" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M24" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N24" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O24" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
         <v>1580.010651986078</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>509.4818394589739</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>509.4818394589739</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H25" t="n">
         <v>33.94366860160834</v>
@@ -6147,52 +6147,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N25" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O25" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1535.988625963248</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U25" t="n">
-        <v>1257.555625216353</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V25" t="n">
-        <v>970.6001170867833</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W25" t="n">
-        <v>698.5737126730747</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X25" t="n">
-        <v>453.1819580064872</v>
+        <v>738.2975308660841</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.7622873205955</v>
+        <v>701.300458177961</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>178.5507252257843</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C26" t="n">
-        <v>33.94366860160834</v>
+        <v>1582.051792433452</v>
       </c>
       <c r="D26" t="n">
-        <v>33.94366860160834</v>
+        <v>1153.47011817072</v>
       </c>
       <c r="E26" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H26" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K26" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L26" t="n">
         <v>687.9235674375537</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>991.6923035150976</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>586.8368489261309</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>586.8368489261309</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y26" t="n">
-        <v>178.5507252257843</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6308,19 +6308,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1024.341879988165</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="C28" t="n">
-        <v>851.7801684713901</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D28" t="n">
-        <v>685.9021756729128</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E28" t="n">
-        <v>516.14417192365</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F28" t="n">
-        <v>339.4371178854062</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G28" t="n">
         <v>173.8458429112338</v>
@@ -6384,52 +6384,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>452.1535503695694</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N28" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O28" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P28" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U28" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V28" t="n">
-        <v>1451.303983658873</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W28" t="n">
-        <v>1443.580169393044</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X28" t="n">
-        <v>1443.580169393044</v>
+        <v>738.2975308660841</v>
       </c>
       <c r="Y28" t="n">
-        <v>1216.160498707152</v>
+        <v>738.2975308660841</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>724.4716545351282</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="C29" t="n">
-        <v>724.4716545351282</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="D29" t="n">
-        <v>724.4716545351282</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="E29" t="n">
-        <v>724.4716545351282</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="F29" t="n">
-        <v>724.4716545351282</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
@@ -6466,22 +6466,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q29" t="n">
         <v>1528.02936532736</v>
@@ -6493,22 +6493,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1354.309253581271</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V29" t="n">
-        <v>991.6923035150976</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W29" t="n">
-        <v>724.4716545351282</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X29" t="n">
-        <v>724.4716545351282</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="Y29" t="n">
-        <v>724.4716545351282</v>
+        <v>1030.847379071119</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,22 +6530,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J30" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
         <v>1159.957753041174</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>592.4712490740719</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C31" t="n">
-        <v>419.9095375572969</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D31" t="n">
-        <v>380.4087263891149</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E31" t="n">
-        <v>210.6507226398521</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
@@ -6630,13 +6630,13 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N31" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
-        <v>1233.160939331176</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
         <v>1528.990655216085</v>
@@ -6645,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1675.765608785789</v>
+        <v>1678.70940289113</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.765608785789</v>
+        <v>1678.70940289113</v>
       </c>
       <c r="T31" t="n">
-        <v>1429.886162364244</v>
+        <v>1432.829956469585</v>
       </c>
       <c r="U31" t="n">
-        <v>1151.45316161735</v>
+        <v>1154.39695572269</v>
       </c>
       <c r="V31" t="n">
-        <v>864.4976534877803</v>
+        <v>867.4414475931208</v>
       </c>
       <c r="W31" t="n">
-        <v>592.4712490740719</v>
+        <v>595.4150431794122</v>
       </c>
       <c r="X31" t="n">
-        <v>592.4712490740719</v>
+        <v>350.0232885128247</v>
       </c>
       <c r="Y31" t="n">
-        <v>592.4712490740719</v>
+        <v>122.603617826933</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1075.344177331261</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C32" t="n">
-        <v>1075.344177331261</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="D32" t="n">
-        <v>1075.344177331261</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E32" t="n">
-        <v>1075.344177331261</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F32" t="n">
-        <v>724.8884439079882</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G32" t="n">
         <v>323.4906125312521</v>
@@ -6703,19 +6703,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1075.344177331261</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W32" t="n">
-        <v>1075.344177331261</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X32" t="n">
-        <v>1075.344177331261</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y32" t="n">
-        <v>1075.344177331261</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="33">
@@ -6785,16 +6785,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>339.4371178854062</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="C34" t="n">
-        <v>339.4371178854062</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="D34" t="n">
-        <v>339.4371178854062</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="E34" t="n">
-        <v>339.4371178854062</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="F34" t="n">
-        <v>339.4371178854062</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="G34" t="n">
-        <v>173.8458429112338</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="H34" t="n">
-        <v>33.94366860160834</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
@@ -6885,25 +6885,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T34" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U34" t="n">
-        <v>992.2117929153466</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V34" t="n">
-        <v>705.2562847857771</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W34" t="n">
-        <v>705.2562847857771</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X34" t="n">
-        <v>459.8645301191896</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y34" t="n">
-        <v>459.8645301191896</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>724.4716545351282</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C35" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D35" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E35" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F35" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6943,13 +6943,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6967,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1437.961127397434</v>
+        <v>1308.384166142797</v>
       </c>
       <c r="V35" t="n">
-        <v>1075.344177331261</v>
+        <v>1308.384166142797</v>
       </c>
       <c r="W35" t="n">
-        <v>724.4716545351282</v>
+        <v>1308.384166142797</v>
       </c>
       <c r="X35" t="n">
-        <v>724.4716545351282</v>
+        <v>889.2417027221078</v>
       </c>
       <c r="Y35" t="n">
-        <v>724.4716545351282</v>
+        <v>889.2417027221078</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,25 +7004,25 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J36" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
         <v>1159.957753041174</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>487.2907080746261</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C37" t="n">
-        <v>314.7289965578511</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D37" t="n">
-        <v>314.7289965578511</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E37" t="n">
-        <v>314.7289965578511</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F37" t="n">
-        <v>138.0219425196073</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G37" t="n">
-        <v>138.0219425196073</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H37" t="n">
         <v>122.603617826933</v>
@@ -7095,19 +7095,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L37" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7125,22 +7125,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U37" t="n">
-        <v>1238.091239336891</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V37" t="n">
-        <v>951.1357312073217</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W37" t="n">
-        <v>679.1093267936133</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X37" t="n">
-        <v>679.1093267936133</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y37" t="n">
-        <v>679.1093267936133</v>
+        <v>122.603617826933</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>891.1070171270717</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C38" t="n">
-        <v>462.52534286434</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7177,19 +7177,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P38" t="n">
         <v>1107.976466382457</v>
@@ -7204,22 +7204,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U38" t="n">
-        <v>1680.023537678153</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V38" t="n">
-        <v>1317.406587611979</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W38" t="n">
-        <v>1317.406587611979</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X38" t="n">
-        <v>1317.406587611979</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y38" t="n">
-        <v>1317.406587611979</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M39" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P39" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q39" t="n">
         <v>1580.010651986078</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>400.6526303550848</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C40" t="n">
-        <v>400.6526303550848</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D40" t="n">
-        <v>380.4087263891149</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E40" t="n">
         <v>210.6507226398521</v>
@@ -7332,52 +7332,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M40" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N40" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O40" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P40" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T40" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.45316161735</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V40" t="n">
-        <v>864.4976534877803</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W40" t="n">
-        <v>592.4712490740719</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X40" t="n">
-        <v>592.4712490740719</v>
+        <v>629.8890120447311</v>
       </c>
       <c r="Y40" t="n">
-        <v>592.4712490740719</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.7584831460063</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C41" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D41" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E41" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F41" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H41" t="n">
         <v>34.36045797446834</v>
@@ -7426,7 +7426,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7441,22 +7441,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U41" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V41" t="n">
-        <v>1075.344177331261</v>
+        <v>1178.371857278892</v>
       </c>
       <c r="W41" t="n">
-        <v>1075.344177331261</v>
+        <v>1178.371857278892</v>
       </c>
       <c r="X41" t="n">
-        <v>1075.344177331261</v>
+        <v>1178.371857278892</v>
       </c>
       <c r="Y41" t="n">
-        <v>667.0580536309141</v>
+        <v>1178.371857278892</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>210.6507226398521</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="C43" t="n">
-        <v>210.6507226398521</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="D43" t="n">
-        <v>210.6507226398521</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E43" t="n">
-        <v>210.6507226398521</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F43" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G43" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H43" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7575,13 +7575,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N43" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7599,22 +7599,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T43" t="n">
-        <v>1429.886162364244</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U43" t="n">
-        <v>1151.45316161735</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V43" t="n">
-        <v>864.4976534877803</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W43" t="n">
-        <v>864.4976534877803</v>
+        <v>1600.924819246712</v>
       </c>
       <c r="X43" t="n">
-        <v>629.8890120447311</v>
+        <v>1355.533064580125</v>
       </c>
       <c r="Y43" t="n">
-        <v>402.4693413588393</v>
+        <v>1128.113393894233</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1030.847379071119</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C44" t="n">
-        <v>602.2657048083877</v>
+        <v>1184.949882001523</v>
       </c>
       <c r="D44" t="n">
-        <v>602.2657048083877</v>
+        <v>756.3682077387909</v>
       </c>
       <c r="E44" t="n">
-        <v>602.2657048083877</v>
+        <v>327.7865334760593</v>
       </c>
       <c r="F44" t="n">
-        <v>602.2657048083877</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
@@ -7678,22 +7678,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U44" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V44" t="n">
-        <v>1030.847379071119</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W44" t="n">
-        <v>1030.847379071119</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X44" t="n">
-        <v>1030.847379071119</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y44" t="n">
-        <v>1030.847379071119</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>428.0970671107308</v>
+        <v>365.412936374258</v>
       </c>
       <c r="C46" t="n">
-        <v>428.0970671107308</v>
+        <v>365.412936374258</v>
       </c>
       <c r="D46" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E46" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
         <v>33.94366860160834</v>
@@ -7815,16 +7815,16 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O46" t="n">
-        <v>1233.160939331176</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1580.667833301518</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
         <v>1697.183430080417</v>
@@ -7848,10 +7848,10 @@
         <v>433.2298803720686</v>
       </c>
       <c r="X46" t="n">
-        <v>428.0970671107308</v>
+        <v>365.412936374258</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.0970671107308</v>
+        <v>365.412936374258</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,19 +8218,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8619,13 +8619,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K11" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8774,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K14" t="n">
         <v>424.2958575201043</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -9245,25 +9245,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -9482,25 +9482,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P21" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q21" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
         <v>424.2958575201043</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>236.2898988798406</v>
@@ -9719,25 +9719,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P24" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q24" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>44.41372909529071</v>
       </c>
       <c r="N28" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10278,16 +10278,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10351,7 +10351,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P32" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10433,19 +10433,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10825,10 +10825,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -10907,7 +10907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888816</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P41" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11223,16 +11223,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D2" t="n">
-        <v>54.86451070832652</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>89.46573903455374</v>
       </c>
       <c r="F4" t="n">
-        <v>28.17067193487969</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22789,22 +22789,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>30.2117889912364</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>257.3891649821977</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>158.2191463097361</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>190.5886512596817</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -23023,16 +23023,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>350.963495404001</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>209.4799141864394</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>19.75255685807437</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23190,7 +23190,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23199,7 +23199,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>177.8543396621484</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>314.7066722132435</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>76.6375792058445</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0414389630128</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>170.7232071360872</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23512,10 +23512,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>218.9960924847408</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>50.41845239354484</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>17.03518778052728</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>381.4496383448661</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23907,10 +23907,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>73.92098976676661</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23977,19 +23977,19 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>324.7585931720855</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>40.52414525755449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24138,7 +24138,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -24177,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>68.6763209364355</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>25.85522019962031</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -24381,7 +24381,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>83.83779588133126</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>188.5183720177909</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>290.6000620304767</v>
+        <v>319.7807268179147</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>138.3128815366195</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>261.6595642464013</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,13 +24694,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.3965117086045</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>136.2584575529073</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24840,16 +24840,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>125.1134098139924</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -24858,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.91435616428706</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>55.41300582468813</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>76.63757920584459</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.67729442035167</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -25089,13 +25089,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>2.914356164286957</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25168,13 +25168,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>89.585363213601</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>53.44310247490591</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25323,13 +25323,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>123.2390111207817</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>160.5633111792702</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25408,7 +25408,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25444,16 +25444,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>239.6417861779115</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>298.2216617877332</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25554,10 +25554,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>144.1777479441824</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>15.35712742186308</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>229.4270031685884</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25645,7 +25645,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>319.8639580038463</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>195.2137587258852</v>
       </c>
       <c r="X43" t="n">
-        <v>10.67528209130293</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>133.0969405483093</v>
       </c>
       <c r="G44" t="n">
-        <v>120.9838902294731</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -26028,7 +26028,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>237.8563519911972</v>
+        <v>175.7990625620891</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360851.0721207154</v>
+        <v>360851.0721207156</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360851.0721207155</v>
+        <v>360851.0721207154</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360851.0721207156</v>
+        <v>360851.0721207155</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360851.0721207155</v>
+        <v>360851.0721207154</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>360851.0721207156</v>
+        <v>360851.0721207154</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>360851.0721207155</v>
+        <v>360851.0721207156</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>360851.0721207154</v>
+        <v>360851.0721207156</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>360851.0721207155</v>
+        <v>360851.0721207156</v>
       </c>
     </row>
     <row r="14">
@@ -26319,7 +26319,7 @@
         <v>72121.4025372441</v>
       </c>
       <c r="D2" t="n">
-        <v>72121.40253724408</v>
+        <v>72121.40253724411</v>
       </c>
       <c r="E2" t="n">
         <v>72121.4025372441</v>
@@ -26328,19 +26328,19 @@
         <v>72121.4025372441</v>
       </c>
       <c r="G2" t="n">
-        <v>72121.40253724411</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="H2" t="n">
-        <v>72121.40253724411</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="I2" t="n">
-        <v>72121.40253724412</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="J2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="K2" t="n">
-        <v>72121.40253724408</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="L2" t="n">
         <v>72121.4025372441</v>
@@ -26349,13 +26349,13 @@
         <v>72121.4025372441</v>
       </c>
       <c r="N2" t="n">
+        <v>72121.4025372441</v>
+      </c>
+      <c r="O2" t="n">
+        <v>72121.4025372441</v>
+      </c>
+      <c r="P2" t="n">
         <v>72121.40253724411</v>
-      </c>
-      <c r="O2" t="n">
-        <v>72121.40253724411</v>
-      </c>
-      <c r="P2" t="n">
-        <v>72121.4025372441</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142126.9082461116</v>
+        <v>-142866.2648580272</v>
       </c>
       <c r="C6" t="n">
-        <v>64.39241359835432</v>
+        <v>-674.9641983172992</v>
       </c>
       <c r="D6" t="n">
-        <v>64.39241359833977</v>
+        <v>-674.9641983172847</v>
       </c>
       <c r="E6" t="n">
-        <v>33691.99241359835</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="F6" t="n">
-        <v>33691.99241359835</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="G6" t="n">
-        <v>33691.99241359837</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="H6" t="n">
-        <v>33691.99241359837</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="I6" t="n">
-        <v>33691.99241359838</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="J6" t="n">
-        <v>-77322.47293139182</v>
+        <v>-78061.82954330748</v>
       </c>
       <c r="K6" t="n">
-        <v>33691.99241359834</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="L6" t="n">
-        <v>33691.99241359835</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="M6" t="n">
-        <v>33691.99241359835</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="N6" t="n">
-        <v>33691.99241359837</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="O6" t="n">
-        <v>33691.99241359837</v>
+        <v>32952.6358016827</v>
       </c>
       <c r="P6" t="n">
-        <v>33691.99241359835</v>
+        <v>32952.63580168271</v>
       </c>
     </row>
   </sheetData>
@@ -34701,25 +34701,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34780,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,19 +34938,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35339,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K11" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35494,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K14" t="n">
         <v>424.2958575201043</v>
@@ -35661,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -35965,25 +35965,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -36202,25 +36202,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P21" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q21" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
         <v>424.2958575201043</v>
@@ -36372,7 +36372,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>236.2898988798406</v>
@@ -36439,25 +36439,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P24" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q24" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>44.41372909529071</v>
       </c>
       <c r="N28" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697544</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36998,16 +36998,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37071,7 +37071,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P32" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37153,19 +37153,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37478,7 +37478,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37545,10 +37545,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -37627,7 +37627,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888816</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P41" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -37943,16 +37943,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38183,19 +38183,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
